--- a/resources/experiment 2/metrics/MAPE/average time/Retinopatía proliferativa.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Retinopatía proliferativa.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3519602159820188</v>
+        <v>3519602159820190</v>
       </c>
       <c r="C2" t="n">
-        <v>3519602159820188</v>
+        <v>3519602159820190</v>
       </c>
       <c r="D2" t="n">
         <v>3519602159820188</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09884688931422762</v>
+        <v>0.02239068914858554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09884688931422762</v>
+        <v>0.02378663569108227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09884688931422762</v>
+        <v>2354497445318.094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45131913565765.94</v>
+        <v>0.02540866155419177</v>
       </c>
       <c r="C4" t="n">
-        <v>45131913565765.94</v>
+        <v>0.02653366009954966</v>
       </c>
       <c r="D4" t="n">
-        <v>45131913565765.94</v>
+        <v>0.1150029293793559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>524122152801903.2</v>
+        <v>21143931516222</v>
       </c>
       <c r="C5" t="n">
-        <v>524122152801903.2</v>
+        <v>7630438543912.923</v>
       </c>
       <c r="D5" t="n">
-        <v>524122152801903.2</v>
+        <v>107916063106830.1</v>
       </c>
     </row>
   </sheetData>
